--- a/biology/Zoologie/Cephalotes_fiebrigi/Cephalotes_fiebrigi.xlsx
+++ b/biology/Zoologie/Cephalotes_fiebrigi/Cephalotes_fiebrigi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes fiebrigi est une espèce de fourmis arboricoles du genre Cephalotes[1][2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes fiebrigi est une espèce de fourmis arboricoles du genre Cephalotes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est native du centre de l'Amérique du Sud, depuis l'état de Cordoba Argentina jusqu'à l'état brésilien de Piaui où elle a est recensée[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est native du centre de l'Amérique du Sud, depuis l'état de Cordoba Argentina jusqu'à l'état brésilien de Piaui où elle a est recensée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 Elle fut décrite et classifiée pour la première fois par l'entomologiste suisse Auguste Forel en 1906.
 </t>
         </is>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
